--- a/Báo Cáo Tiến Độ Công Việc.xlsx
+++ b/Báo Cáo Tiến Độ Công Việc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F036C-DD39-44B1-8A9E-87B3671F673E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0225E6E-3C17-4CB4-AA18-C4DEB463323E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{26751C18-2F6B-4949-88BA-1FF4252B52D1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="25">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>Ngô Hoàng Minh</t>
+  </si>
+  <si>
+    <t>Giao diện Hiển Thị + một số chức năng API</t>
+  </si>
+  <si>
+    <t>Frontend + backend</t>
+  </si>
+  <si>
+    <t>13/5</t>
+  </si>
+  <si>
+    <t>18/5</t>
+  </si>
+  <si>
+    <t>Chưa Hoàn Thiện</t>
+  </si>
+  <si>
+    <t>Còn thiếu Chức năng API và giao diện 1 số trang</t>
   </si>
 </sst>
 </file>
@@ -102,12 +120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -137,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,6 +173,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,30 +498,31 @@
   <dimension ref="A2:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:N12"/>
+      <selection activeCell="G11" sqref="G11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -559,38 +590,38 @@
       <c r="J6" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -643,26 +674,42 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="3">
+        <v>0.5</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="O11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -675,8 +722,8 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
